--- a/Assets/100_Data/XlsxFiles/Ground_Data.xlsx
+++ b/Assets/100_Data/XlsxFiles/Ground_Data.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Coding\Drill_Game\Assets\100_Data\CSVData\XlsxFiles\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Coding\Drill_Game\Assets\100_Data\XlsxFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,23 +19,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
-  <si>
-    <t>Start Depth</t>
-  </si>
-  <si>
-    <t>End Depth</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="18">
   <si>
     <t>HP</t>
   </si>
   <si>
-    <t>Drop Items</t>
-  </si>
-  <si>
-    <t>Sprite Addressable</t>
-  </si>
-  <si>
     <t>stone</t>
   </si>
   <si>
@@ -55,6 +43,43 @@
   </si>
   <si>
     <t>diamond</t>
+  </si>
+  <si>
+    <t>Id</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Name</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ground_1</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ground_2</t>
+  </si>
+  <si>
+    <t>Ground_3</t>
+  </si>
+  <si>
+    <t>Ground_4</t>
+  </si>
+  <si>
+    <t>StartDepth</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>EndDepth</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>DropItems</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>SpriteAddressable</t>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -710,14 +735,16 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="표1" displayName="표1" ref="A1:E5" totalsRowShown="0">
-  <autoFilter ref="A1:E5"/>
-  <tableColumns count="5">
-    <tableColumn id="1" name="Start Depth"/>
-    <tableColumn id="2" name="End Depth"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="표1" displayName="표1" ref="A1:G5" totalsRowShown="0">
+  <autoFilter ref="A1:G5"/>
+  <tableColumns count="7">
+    <tableColumn id="6" name="Id"/>
+    <tableColumn id="7" name="Name"/>
+    <tableColumn id="1" name="StartDepth"/>
+    <tableColumn id="2" name="EndDepth"/>
     <tableColumn id="3" name="HP"/>
-    <tableColumn id="4" name="Drop Items"/>
-    <tableColumn id="5" name="Sprite Addressable"/>
+    <tableColumn id="4" name="DropItems"/>
+    <tableColumn id="5" name="SpriteAddressable"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -986,10 +1013,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1000,96 +1027,127 @@
     <col min="5" max="5" width="27.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="F1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>5001</v>
+      </c>
+      <c r="B2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>5</v>
+      </c>
+      <c r="E2">
+        <v>5</v>
+      </c>
+      <c r="F2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="G2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>5002</v>
+      </c>
+      <c r="B3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3">
+        <v>6</v>
+      </c>
+      <c r="D3">
+        <v>10</v>
+      </c>
+      <c r="E3">
+        <v>5</v>
+      </c>
+      <c r="F3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>0</v>
-      </c>
-      <c r="B2">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>5003</v>
+      </c>
+      <c r="B4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4">
+        <v>11</v>
+      </c>
+      <c r="D4">
+        <v>15</v>
+      </c>
+      <c r="E4">
         <v>5</v>
       </c>
-      <c r="C2">
+      <c r="F4" t="s">
         <v>5</v>
       </c>
-      <c r="D2" t="s">
+      <c r="G4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>5004</v>
+      </c>
+      <c r="B5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5">
+        <v>16</v>
+      </c>
+      <c r="D5">
+        <v>-1</v>
+      </c>
+      <c r="E5">
         <v>5</v>
       </c>
-      <c r="E2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>6</v>
-      </c>
-      <c r="B3">
-        <v>10</v>
-      </c>
-      <c r="C3">
-        <v>5</v>
-      </c>
-      <c r="D3" t="s">
+      <c r="F5" t="s">
         <v>7</v>
       </c>
-      <c r="E3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>11</v>
-      </c>
-      <c r="B4">
-        <v>15</v>
-      </c>
-      <c r="C4">
-        <v>5</v>
-      </c>
-      <c r="D4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <v>16</v>
-      </c>
-      <c r="B5">
-        <v>-1</v>
-      </c>
-      <c r="C5">
-        <v>5</v>
-      </c>
-      <c r="D5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E5" t="s">
-        <v>6</v>
+      <c r="G5" t="s">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
--- a/Assets/100_Data/XlsxFiles/Ground_Data.xlsx
+++ b/Assets/100_Data/XlsxFiles/Ground_Data.xlsx
@@ -19,30 +19,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
   <si>
     <t>HP</t>
   </si>
   <si>
-    <t>stone</t>
-  </si>
-  <si>
     <t>Light_Brown[Light_Brown]</t>
   </si>
   <si>
-    <t>stone;iron</t>
-  </si>
-  <si>
     <t>Deep_Brown[Deep_Brown]</t>
   </si>
   <si>
-    <t>stone;iron;gold</t>
-  </si>
-  <si>
     <t>Lava_Earth[Lava_Earth]</t>
-  </si>
-  <si>
-    <t>diamond</t>
   </si>
   <si>
     <t>Id</t>
@@ -79,6 +67,14 @@
   </si>
   <si>
     <t>SpriteAddressable</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>1001;1003</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>1001;1003;1005</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -1016,7 +1012,7 @@
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1024,30 +1020,32 @@
     <col min="1" max="1" width="13" customWidth="1"/>
     <col min="2" max="2" width="12" customWidth="1"/>
     <col min="4" max="4" width="12.75" customWidth="1"/>
-    <col min="5" max="5" width="27.875" customWidth="1"/>
+    <col min="5" max="5" width="11.25" customWidth="1"/>
+    <col min="6" max="6" width="33.25" customWidth="1"/>
+    <col min="7" max="7" width="23.75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E1" t="s">
         <v>0</v>
       </c>
       <c r="F1" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="G1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
@@ -1055,7 +1053,7 @@
         <v>5001</v>
       </c>
       <c r="B2" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -1066,11 +1064,11 @@
       <c r="E2">
         <v>5</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2">
+        <v>1001</v>
+      </c>
+      <c r="G2" t="s">
         <v>1</v>
-      </c>
-      <c r="G2" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
@@ -1078,7 +1076,7 @@
         <v>5002</v>
       </c>
       <c r="B3" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C3">
         <v>6</v>
@@ -1090,10 +1088,10 @@
         <v>5</v>
       </c>
       <c r="F3" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="G3" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
@@ -1101,7 +1099,7 @@
         <v>5003</v>
       </c>
       <c r="B4" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C4">
         <v>11</v>
@@ -1113,10 +1111,10 @@
         <v>5</v>
       </c>
       <c r="F4" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="G4" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
@@ -1124,7 +1122,7 @@
         <v>5004</v>
       </c>
       <c r="B5" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C5">
         <v>16</v>
@@ -1135,11 +1133,11 @@
       <c r="E5">
         <v>5</v>
       </c>
-      <c r="F5" t="s">
-        <v>7</v>
+      <c r="F5">
+        <v>1007</v>
       </c>
       <c r="G5" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
